--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value632.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value632.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.220190079676537</v>
+        <v>1.207114100456238</v>
       </c>
       <c r="B1">
-        <v>2.325807144984086</v>
+        <v>2.426470994949341</v>
       </c>
       <c r="C1">
-        <v>3.624289019972049</v>
+        <v>4.614832878112793</v>
       </c>
       <c r="D1">
-        <v>3.118446746350486</v>
+        <v>2.592143535614014</v>
       </c>
       <c r="E1">
-        <v>1.107253247531941</v>
+        <v>1.094354748725891</v>
       </c>
     </row>
   </sheetData>
